--- a/maps/MD/MD20C_candidates.xlsx
+++ b/maps/MD/MD20C_candidates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/MD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF71DD2F-C841-5C4E-BA9E-34A66D43DC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183E1A47-346E-3F4C-A518-2C96DAA94EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7700" yWindow="2160" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{0A068D4B-DECE-2C47-9741-13AD2A4BEF96}" name="NC20C_candidates1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/NC/NC20C_candidates.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/MD/MD20C_candidates.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField type="text"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
   <si>
     <t>#</t>
   </si>
@@ -132,465 +132,249 @@
     <t>MD20C_I017K01N08</t>
   </si>
   <si>
-    <t>0.000000</t>
-  </si>
-  <si>
     <t>MD20C_I096K01N08</t>
   </si>
   <si>
-    <t>0.017514</t>
-  </si>
-  <si>
     <t>MD20C_I027K01N08</t>
   </si>
   <si>
-    <t>0.019304</t>
-  </si>
-  <si>
     <t>MD20C_I018K01N08</t>
   </si>
   <si>
-    <t>0.031720</t>
-  </si>
-  <si>
     <t>MD20C_I031K01N08</t>
   </si>
   <si>
-    <t>0.024833</t>
-  </si>
-  <si>
     <t>MD20C_I047K01N08</t>
   </si>
   <si>
-    <t>0.014193</t>
-  </si>
-  <si>
     <t>MD20C_I052K01N08</t>
   </si>
   <si>
-    <t>0.022252</t>
-  </si>
-  <si>
     <t>MD20C_I044K01N08</t>
   </si>
   <si>
-    <t>0.020997</t>
-  </si>
-  <si>
     <t>MD20C_I067K01N08</t>
   </si>
   <si>
-    <t>0.034750</t>
-  </si>
-  <si>
     <t>MD20C_I088K01N08</t>
   </si>
   <si>
-    <t>0.045751</t>
-  </si>
-  <si>
     <t>MD20C_I042K01N08</t>
   </si>
   <si>
-    <t>0.022797</t>
-  </si>
-  <si>
     <t>MD20C_I087K01N08</t>
   </si>
   <si>
-    <t>0.016998</t>
-  </si>
-  <si>
     <t>MD20C_I062K01N08</t>
   </si>
   <si>
-    <t>0.011585</t>
-  </si>
-  <si>
     <t>MD20C_I077K01N08</t>
   </si>
   <si>
-    <t>0.022935</t>
-  </si>
-  <si>
     <t>MD20C_I033K01N08</t>
   </si>
   <si>
-    <t>0.160128</t>
-  </si>
-  <si>
     <t>MD20C_I041K01N08</t>
   </si>
   <si>
     <t>MD20C_I016K01N08</t>
   </si>
   <si>
-    <t>0.018659</t>
-  </si>
-  <si>
     <t>MD20C_I082K01N08</t>
   </si>
   <si>
-    <t>0.024308</t>
-  </si>
-  <si>
     <t>MD20C_I086K01N08</t>
   </si>
   <si>
-    <t>0.027599</t>
-  </si>
-  <si>
     <t>MD20C_I005K01N08</t>
   </si>
   <si>
-    <t>0.111368</t>
-  </si>
-  <si>
     <t>MD20C_I013K01N08</t>
   </si>
   <si>
-    <t>0.079781</t>
-  </si>
-  <si>
     <t>MD20C_I080K01N08</t>
   </si>
   <si>
-    <t>0.165507</t>
-  </si>
-  <si>
     <t>MD20C_I064K01N08</t>
   </si>
   <si>
-    <t>0.156426</t>
-  </si>
-  <si>
     <t>MD20C_I073K01N08</t>
   </si>
   <si>
-    <t>0.165775</t>
-  </si>
-  <si>
     <t>MD20C_I072K01N08</t>
   </si>
   <si>
-    <t>0.166669</t>
-  </si>
-  <si>
     <t>MD20C_I045K01N08</t>
   </si>
   <si>
     <t>MD20C_I081K01N08</t>
   </si>
   <si>
-    <t>0.102949</t>
-  </si>
-  <si>
     <t>MD20C_I085K01N08</t>
   </si>
   <si>
-    <t>0.148586</t>
-  </si>
-  <si>
     <t>MD20C_I078K01N08</t>
   </si>
   <si>
-    <t>0.109157</t>
-  </si>
-  <si>
     <t>MD20C_I006K01N08</t>
   </si>
   <si>
-    <t>0.169092</t>
-  </si>
-  <si>
     <t>MD20C_I001K01N08</t>
   </si>
   <si>
-    <t>0.147928</t>
-  </si>
-  <si>
     <t>MD20C_I075K01N08</t>
   </si>
   <si>
-    <t>0.121424</t>
-  </si>
-  <si>
     <t>MD20C_I003K01N08</t>
   </si>
   <si>
-    <t>0.120207</t>
-  </si>
-  <si>
     <t>MD20C_I015K01N08</t>
   </si>
   <si>
-    <t>0.113860</t>
-  </si>
-  <si>
     <t>MD20C_I065K01N08</t>
   </si>
   <si>
-    <t>0.084325</t>
-  </si>
-  <si>
     <t>MD20C_I008K01N08</t>
   </si>
   <si>
-    <t>0.154152</t>
-  </si>
-  <si>
     <t>MD20C_I043K01N08</t>
   </si>
   <si>
-    <t>0.119392</t>
-  </si>
-  <si>
     <t>MD20C_I076K01N08</t>
   </si>
   <si>
-    <t>0.099915</t>
-  </si>
-  <si>
     <t>MD20C_I032K01N08</t>
   </si>
   <si>
-    <t>0.112032</t>
-  </si>
-  <si>
     <t>MD20C_I002K01N08</t>
   </si>
   <si>
-    <t>0.150262</t>
-  </si>
-  <si>
     <t>MD20C_I092K01N08</t>
   </si>
   <si>
     <t>MD20C_I083K01N08</t>
   </si>
   <si>
-    <t>0.151335</t>
-  </si>
-  <si>
     <t>MD20C_I000K01N08</t>
   </si>
   <si>
-    <t>0.160194</t>
-  </si>
-  <si>
     <t>MD20C_I026K01N08</t>
   </si>
   <si>
-    <t>0.107385</t>
-  </si>
-  <si>
     <t>MD20C_I084K01N08</t>
   </si>
   <si>
-    <t>0.124383</t>
-  </si>
-  <si>
     <t>MD20C_I095K01N08</t>
   </si>
   <si>
-    <t>0.108240</t>
-  </si>
-  <si>
     <t>MD20C_I038K01N08</t>
   </si>
   <si>
     <t>MD20C_I061K01N08</t>
   </si>
   <si>
-    <t>0.071415</t>
-  </si>
-  <si>
     <t>MD20C_I071K01N08</t>
   </si>
   <si>
-    <t>0.118674</t>
-  </si>
-  <si>
     <t>MD20C_I089K01N08</t>
   </si>
   <si>
-    <t>0.119319</t>
-  </si>
-  <si>
     <t>MD20C_I039K01N08</t>
   </si>
   <si>
-    <t>0.066881</t>
-  </si>
-  <si>
     <t>MD20C_I024K01N08</t>
   </si>
   <si>
-    <t>0.057000</t>
-  </si>
-  <si>
     <t>MD20C_I054K01N08</t>
   </si>
   <si>
-    <t>0.114371</t>
-  </si>
-  <si>
     <t>MD20C_I049K01N08</t>
   </si>
   <si>
-    <t>0.079828</t>
-  </si>
-  <si>
     <t>MD20C_I036K01N08</t>
   </si>
   <si>
-    <t>0.123324</t>
-  </si>
-  <si>
     <t>MD20C_I058K01N08</t>
   </si>
   <si>
     <t>MD20C_I059K01N08</t>
   </si>
   <si>
-    <t>0.106030</t>
-  </si>
-  <si>
     <t>MD20C_I060K01N08</t>
   </si>
   <si>
     <t>MD20C_I012K01N08</t>
   </si>
   <si>
-    <t>0.057105</t>
-  </si>
-  <si>
     <t>MD20C_I079K01N08</t>
   </si>
   <si>
-    <t>0.106824</t>
-  </si>
-  <si>
     <t>MD20C_I048K01N08</t>
   </si>
   <si>
-    <t>0.155883</t>
-  </si>
-  <si>
     <t>MD20C_I099K01N08</t>
   </si>
   <si>
     <t>MD20C_I046K01N08</t>
   </si>
   <si>
-    <t>0.105035</t>
-  </si>
-  <si>
     <t>MD20C_I040K01N08</t>
   </si>
   <si>
-    <t>0.108431</t>
-  </si>
-  <si>
     <t>MD20C_I014K01N08</t>
   </si>
   <si>
-    <t>0.109891</t>
-  </si>
-  <si>
     <t>MD20C_I019K01N08</t>
   </si>
   <si>
-    <t>0.109666</t>
-  </si>
-  <si>
     <t>MD20C_I010K01N08</t>
   </si>
   <si>
     <t>MD20C_I029K01N08</t>
   </si>
   <si>
-    <t>0.170380</t>
-  </si>
-  <si>
     <t>MD20C_I020K01N08</t>
   </si>
   <si>
-    <t>0.108839</t>
-  </si>
-  <si>
     <t>MD20C_I011K01N08</t>
   </si>
   <si>
-    <t>0.116518</t>
-  </si>
-  <si>
     <t>MD20C_I098K01N08</t>
   </si>
   <si>
-    <t>0.057699</t>
-  </si>
-  <si>
     <t>MD20C_I004K01N08</t>
   </si>
   <si>
-    <t>0.067861</t>
-  </si>
-  <si>
     <t>MD20C_I034K01N08</t>
   </si>
   <si>
-    <t>0.102898</t>
-  </si>
-  <si>
     <t>MD20C_I025K01N08</t>
   </si>
   <si>
-    <t>0.106807</t>
-  </si>
-  <si>
     <t>MD20C_I009K01N08</t>
   </si>
   <si>
     <t>MD20C_I066K01N08</t>
   </si>
   <si>
-    <t>0.160721</t>
-  </si>
-  <si>
     <t>MD20C_I007K01N08</t>
   </si>
   <si>
-    <t>0.112690</t>
-  </si>
-  <si>
     <t>MD20C_I056K01N08</t>
   </si>
   <si>
     <t>MD20C_I022K01N08</t>
   </si>
   <si>
-    <t>0.112346</t>
-  </si>
-  <si>
     <t>MD20C_I037K01N08</t>
   </si>
   <si>
-    <t>0.108108</t>
-  </si>
-  <si>
     <t>MD20C_I074K01N08</t>
   </si>
   <si>
-    <t>0.105082</t>
-  </si>
-  <si>
     <t>MD20C_I094K01N08</t>
   </si>
   <si>
-    <t>0.162089</t>
-  </si>
-  <si>
     <t>MD20C_I090K01N08</t>
   </si>
   <si>
@@ -600,94 +384,49 @@
     <t>MD20C_I068K01N08</t>
   </si>
   <si>
-    <t>0.063383</t>
-  </si>
-  <si>
     <t>MD20C_I069K01N08</t>
   </si>
   <si>
-    <t>0.146004</t>
-  </si>
-  <si>
     <t>MD20C_I028K01N08</t>
   </si>
   <si>
-    <t>0.142481</t>
-  </si>
-  <si>
     <t>MD20C_I070K01N08</t>
   </si>
   <si>
-    <t>0.140332</t>
-  </si>
-  <si>
     <t>MD20C_I091K01N08</t>
   </si>
   <si>
-    <t>0.135050</t>
-  </si>
-  <si>
     <t>MD20C_I063K01N08</t>
   </si>
   <si>
-    <t>0.142333</t>
-  </si>
-  <si>
     <t>MD20C_I097K01N08</t>
   </si>
   <si>
-    <t>0.144184</t>
-  </si>
-  <si>
     <t>MD20C_I093K01N08</t>
   </si>
   <si>
-    <t>0.175762</t>
-  </si>
-  <si>
     <t>MD20C_I057K01N08</t>
   </si>
   <si>
-    <t>0.175753</t>
-  </si>
-  <si>
     <t>MD20C_I055K01N08</t>
   </si>
   <si>
-    <t>0.114813</t>
-  </si>
-  <si>
     <t>MD20C_I030K01N08</t>
   </si>
   <si>
-    <t>0.125792</t>
-  </si>
-  <si>
     <t>MD20C_I051K01N08</t>
   </si>
   <si>
-    <t>0.110972</t>
-  </si>
-  <si>
     <t>MD20C_I023K01N08</t>
   </si>
   <si>
     <t>MD20C_I050K01N08</t>
   </si>
   <si>
-    <t>0.114083</t>
-  </si>
-  <si>
     <t>MD20C_I021K01N08</t>
   </si>
   <si>
-    <t>0.127530</t>
-  </si>
-  <si>
     <t>MD20C_I035K01N08</t>
-  </si>
-  <si>
-    <t>0.579662</t>
   </si>
 </sst>
 </file>
@@ -819,11 +558,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1170,7 +909,7 @@
       </c>
       <c r="B4" s="22">
         <f>MIN(DATA!E$2:E$101)</f>
-        <v>2.64E-3</v>
+        <v>2.8900000000000002E-3</v>
       </c>
       <c r="C4" s="8">
         <f>MIN(DATA!F$2:F$101)</f>
@@ -1178,7 +917,7 @@
       </c>
       <c r="D4" s="8">
         <f>MIN(DATA!G$2:G$101)</f>
-        <v>0.77373400000000003</v>
+        <v>0.90971999999999997</v>
       </c>
       <c r="E4" s="8">
         <f>MIN(DATA!H$2:H$101)</f>
@@ -1195,11 +934,11 @@
       </c>
       <c r="B5" s="22">
         <f>MAX(DATA!E$2:E$101)</f>
-        <v>2.5569999999999999E-2</v>
+        <v>1.661E-2</v>
       </c>
       <c r="C5" s="8">
         <f>MAX(DATA!F$2:F$101)</f>
-        <v>2.988E-2</v>
+        <v>1.5701E-2</v>
       </c>
       <c r="D5" s="8">
         <f>MAX(DATA!G$2:G$101)</f>
@@ -1207,11 +946,11 @@
       </c>
       <c r="E5" s="8">
         <f>MAX(DATA!H$2:H$101)</f>
-        <v>0.69470799999999999</v>
+        <v>0.47970299999999999</v>
       </c>
       <c r="F5" s="8">
         <f>MAX(DATA!I$2:I$101)</f>
-        <v>0</v>
+        <v>0.21043899999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1220,23 +959,23 @@
       </c>
       <c r="B6" s="22">
         <f>AVERAGE(DATA!E$2:E$101)</f>
-        <v>8.9702999999999988E-3</v>
+        <v>7.0811000000000025E-3</v>
       </c>
       <c r="C6" s="8">
         <f>AVERAGE(DATA!F$2:F$101)</f>
-        <v>4.0041899999999995E-3</v>
+        <v>6.2138400000000017E-3</v>
       </c>
       <c r="D6" s="8">
         <f>AVERAGE(DATA!G$2:G$101)</f>
-        <v>0.95047543000000023</v>
+        <v>0.94532691000000013</v>
       </c>
       <c r="E6" s="8">
         <f>AVERAGE(DATA!H$2:H$101)</f>
-        <v>0.29988686000000003</v>
-      </c>
-      <c r="F6" s="8" t="e">
+        <v>0.33290245000000007</v>
+      </c>
+      <c r="F6" s="8">
         <f>AVERAGE(DATA!I$2:I$101)</f>
-        <v>#DIV/0!</v>
+        <v>0.11976449000000003</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1245,23 +984,23 @@
       </c>
       <c r="B7" s="22">
         <f>MEDIAN(DATA!E$2:E$101)</f>
-        <v>6.8399999999999997E-3</v>
+        <v>6.4900000000000001E-3</v>
       </c>
       <c r="C7" s="8">
         <f>MEDIAN(DATA!F$2:F$101)</f>
-        <v>3.7039999999999998E-3</v>
+        <v>5.8735000000000002E-3</v>
       </c>
       <c r="D7" s="8">
         <f>MEDIAN(DATA!G$2:G$101)</f>
-        <v>0.94901849999999999</v>
+        <v>0.9445619999999999</v>
       </c>
       <c r="E7" s="8">
         <f>MEDIAN(DATA!H$2:H$101)</f>
-        <v>0.32727899999999999</v>
-      </c>
-      <c r="F7" s="8" t="e">
+        <v>0.3408215</v>
+      </c>
+      <c r="F7" s="8">
         <f>MEDIAN(DATA!I$2:I$101)</f>
-        <v>#NUM!</v>
+        <v>0.11955350000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1270,23 +1009,23 @@
       </c>
       <c r="B8" s="27">
         <f>STDEV(DATA!E$2:E$101)</f>
-        <v>5.027094358261909E-3</v>
+        <v>2.9522721586923329E-3</v>
       </c>
       <c r="C8" s="13">
         <f>STDEV(DATA!F$2:F$101)</f>
-        <v>3.2497984636657776E-3</v>
+        <v>3.2116517343931104E-3</v>
       </c>
       <c r="D8" s="13">
         <f>STDEV(DATA!G$2:G$101)</f>
-        <v>2.6964550895856813E-2</v>
+        <v>1.5012152426842987E-2</v>
       </c>
       <c r="E8" s="13">
         <f>STDEV(DATA!H$2:H$101)</f>
-        <v>0.1179850888452373</v>
-      </c>
-      <c r="F8" s="13" t="e">
+        <v>7.621889540179741E-2</v>
+      </c>
+      <c r="F8" s="13">
         <f>STDEV(DATA!I$2:I$101)</f>
-        <v>#DIV/0!</v>
+        <v>3.5191655502404107E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1346,17 +1085,13 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11" style="22"/>
+    <col min="8" max="9" width="11" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1390,19 +1125,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="25">
-        <v>1314857.197131</v>
+        <v>1315321.038832</v>
       </c>
       <c r="E2" s="21">
-        <v>5.3400000000000001E-3</v>
+        <v>6.1500000000000001E-3</v>
       </c>
       <c r="F2" s="21">
         <v>0</v>
@@ -1413,2879 +1148,2879 @@
       <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>18</v>
+      <c r="I2" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="23">
-        <v>1315256.850815</v>
+        <v>1315696.537767</v>
       </c>
       <c r="E3" s="22">
-        <v>5.2300000000000003E-3</v>
+        <v>3.64E-3</v>
       </c>
       <c r="F3" s="22">
-        <v>3.0400000000000002E-4</v>
+        <v>2.8499999999999999E-4</v>
       </c>
       <c r="G3" s="22">
-        <v>0.99137699999999995</v>
+        <v>0.98237300000000005</v>
       </c>
       <c r="H3" s="9">
-        <v>7.1012000000000006E-2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>0.13927100000000001</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3.6150000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="23">
-        <v>1315438.7403849999</v>
+        <v>1316105.3608810001</v>
       </c>
       <c r="E4" s="22">
-        <v>3.6099999999999999E-3</v>
+        <v>4.9699999999999996E-3</v>
       </c>
       <c r="F4" s="22">
-        <v>4.4200000000000001E-4</v>
+        <v>5.9599999999999996E-4</v>
       </c>
       <c r="G4" s="22">
-        <v>0.99048800000000004</v>
+        <v>0.98966500000000002</v>
       </c>
       <c r="H4" s="9">
-        <v>7.8273999999999996E-2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>8.0581E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.1212999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="23">
-        <v>1315664.119438</v>
+        <v>1317063.0232309999</v>
       </c>
       <c r="E5" s="22">
-        <v>6.3600000000000002E-3</v>
+        <v>6.4099999999999999E-3</v>
       </c>
       <c r="F5" s="22">
-        <v>6.1399999999999996E-4</v>
+        <v>1.3240000000000001E-3</v>
       </c>
       <c r="G5" s="22">
-        <v>0.98459700000000006</v>
+        <v>0.97092999999999996</v>
       </c>
       <c r="H5" s="9">
-        <v>0.119751</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>0.21007999999999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6.1002000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="23">
-        <v>1315825.2210659999</v>
+        <v>1317234.9430549999</v>
       </c>
       <c r="E6" s="22">
-        <v>5.2599999999999999E-3</v>
+        <v>5.3299999999999997E-3</v>
       </c>
       <c r="F6" s="22">
-        <v>7.36E-4</v>
+        <v>1.4549999999999999E-3</v>
       </c>
       <c r="G6" s="22">
-        <v>0.98782700000000001</v>
+        <v>0.96599299999999999</v>
       </c>
       <c r="H6" s="9">
-        <v>9.6426999999999999E-2</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>0.22806599999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7.1861999999999995E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="23">
-        <v>1315883.090931</v>
+        <v>1317302.333564</v>
       </c>
       <c r="E7" s="22">
-        <v>7.77E-3</v>
+        <v>7.7400000000000004E-3</v>
       </c>
       <c r="F7" s="22">
-        <v>7.7999999999999999E-4</v>
+        <v>1.506E-3</v>
       </c>
       <c r="G7" s="22">
-        <v>0.99299800000000005</v>
+        <v>0.93594100000000002</v>
       </c>
       <c r="H7" s="9">
-        <v>6.0651999999999998E-2</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>28</v>
+        <v>0.37337100000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.14544099999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="23">
-        <v>1315913.6370019999</v>
+        <v>1317837.6693839999</v>
       </c>
       <c r="E8" s="22">
-        <v>2.0820000000000002E-2</v>
+        <v>4.0099999999999997E-3</v>
       </c>
       <c r="F8" s="22">
-        <v>8.03E-4</v>
+        <v>1.913E-3</v>
       </c>
       <c r="G8" s="22">
-        <v>0.98907800000000001</v>
+        <v>0.95854499999999998</v>
       </c>
       <c r="H8" s="9">
-        <v>8.4273000000000001E-2</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>0.27753800000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8.8830999999999993E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="23">
-        <v>1316012.7287339999</v>
+        <v>1318017.108369</v>
       </c>
       <c r="E9" s="22">
-        <v>1.5990000000000001E-2</v>
+        <v>3.4199999999999999E-3</v>
       </c>
       <c r="F9" s="22">
-        <v>8.7900000000000001E-4</v>
+        <v>2.0500000000000002E-3</v>
       </c>
       <c r="G9" s="22">
-        <v>0.98968199999999995</v>
+        <v>0.93372900000000003</v>
       </c>
       <c r="H9" s="9">
-        <v>8.0834000000000003E-2</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>0.38568999999999998</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.15120500000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="23">
-        <v>1316114.5375610001</v>
+        <v>1318620.0327890001</v>
       </c>
       <c r="E10" s="22">
-        <v>6.28E-3</v>
+        <v>4.0099999999999997E-3</v>
       </c>
       <c r="F10" s="22">
-        <v>9.5600000000000004E-4</v>
+        <v>2.5079999999999998E-3</v>
       </c>
       <c r="G10" s="22">
-        <v>0.98316899999999996</v>
+        <v>0.95465500000000003</v>
       </c>
       <c r="H10" s="9">
-        <v>0.13019</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>34</v>
+        <v>0.29705300000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>9.8052E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="23">
-        <v>1316146.393412</v>
+        <v>1318641.7755199999</v>
       </c>
       <c r="E11" s="22">
-        <v>5.3699999999999998E-3</v>
+        <v>4.4200000000000003E-3</v>
       </c>
       <c r="F11" s="22">
-        <v>9.7999999999999997E-4</v>
+        <v>2.5249999999999999E-3</v>
       </c>
       <c r="G11" s="22">
-        <v>0.97805699999999995</v>
+        <v>0.95645899999999995</v>
       </c>
       <c r="H11" s="9">
-        <v>0.159192</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>36</v>
+        <v>0.2722</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9.3280000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="23">
-        <v>1316215.3206539999</v>
+        <v>1318698.186034</v>
       </c>
       <c r="E12" s="22">
-        <v>2.368E-2</v>
+        <v>5.3699999999999998E-3</v>
       </c>
       <c r="F12" s="22">
-        <v>1.0330000000000001E-3</v>
+        <v>2.568E-3</v>
       </c>
       <c r="G12" s="22">
-        <v>0.98882800000000004</v>
+        <v>0.95263600000000004</v>
       </c>
       <c r="H12" s="9">
-        <v>8.5149000000000002E-2</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>38</v>
+        <v>0.30371900000000002</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.103161</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="23">
-        <v>1316519.8667590001</v>
+        <v>1318876.4570879999</v>
       </c>
       <c r="E13" s="22">
-        <v>5.7499999999999999E-3</v>
+        <v>5.1799999999999997E-3</v>
       </c>
       <c r="F13" s="22">
-        <v>1.2650000000000001E-3</v>
+        <v>2.7030000000000001E-3</v>
       </c>
       <c r="G13" s="22">
-        <v>0.99163199999999996</v>
+        <v>0.95857499999999995</v>
       </c>
       <c r="H13" s="9">
-        <v>6.8455000000000002E-2</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>40</v>
+        <v>0.26271</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8.8440000000000005E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="23">
-        <v>1316784.6966019999</v>
+        <v>1318990.923923</v>
       </c>
       <c r="E14" s="22">
-        <v>8.1600000000000006E-3</v>
+        <v>4.2100000000000002E-3</v>
       </c>
       <c r="F14" s="22">
-        <v>1.4660000000000001E-3</v>
+        <v>2.7899999999999999E-3</v>
       </c>
       <c r="G14" s="22">
-        <v>0.99427699999999997</v>
+        <v>0.95690299999999995</v>
       </c>
       <c r="H14" s="9">
-        <v>4.8927999999999999E-2</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>42</v>
+        <v>0.273814</v>
+      </c>
+      <c r="I14" s="1">
+        <v>9.2231999999999995E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="23">
-        <v>1317156.406008</v>
+        <v>1318990.923923</v>
       </c>
       <c r="E15" s="22">
-        <v>1.153E-2</v>
+        <v>4.2100000000000002E-3</v>
       </c>
       <c r="F15" s="22">
-        <v>1.7489999999999999E-3</v>
+        <v>2.7899999999999999E-3</v>
       </c>
       <c r="G15" s="22">
-        <v>0.98874499999999999</v>
+        <v>0.95690299999999995</v>
       </c>
       <c r="H15" s="9">
-        <v>8.6352999999999999E-2</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>44</v>
+        <v>0.273814</v>
+      </c>
+      <c r="I15" s="1">
+        <v>9.2231999999999995E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="23">
-        <v>1317369.8405490001</v>
+        <v>1318990.923923</v>
       </c>
       <c r="E16" s="22">
-        <v>1.022E-2</v>
+        <v>4.2100000000000002E-3</v>
       </c>
       <c r="F16" s="22">
-        <v>1.9109999999999999E-3</v>
+        <v>2.7899999999999999E-3</v>
       </c>
       <c r="G16" s="22">
-        <v>0.930365</v>
+        <v>0.95690299999999995</v>
       </c>
       <c r="H16" s="9">
-        <v>0.39997899999999997</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>46</v>
+        <v>0.273814</v>
+      </c>
+      <c r="I16" s="1">
+        <v>9.2231999999999995E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="23">
-        <v>1317369.8405490001</v>
+        <v>1318990.923923</v>
       </c>
       <c r="E17" s="22">
-        <v>1.022E-2</v>
+        <v>4.2100000000000002E-3</v>
       </c>
       <c r="F17" s="22">
-        <v>1.9109999999999999E-3</v>
+        <v>2.7899999999999999E-3</v>
       </c>
       <c r="G17" s="22">
-        <v>0.930365</v>
+        <v>0.95690299999999995</v>
       </c>
       <c r="H17" s="9">
-        <v>0.39997899999999997</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>46</v>
+        <v>0.273814</v>
+      </c>
+      <c r="I17" s="1">
+        <v>9.2231999999999995E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="23">
-        <v>1317428.743122</v>
+        <v>1319015.761831</v>
       </c>
       <c r="E18" s="22">
-        <v>5.6600000000000001E-3</v>
+        <v>5.0099999999999997E-3</v>
       </c>
       <c r="F18" s="22">
-        <v>1.9559999999999998E-3</v>
+        <v>2.8089999999999999E-3</v>
       </c>
       <c r="G18" s="22">
-        <v>0.99081600000000003</v>
+        <v>0.95603300000000002</v>
       </c>
       <c r="H18" s="9">
-        <v>7.4445999999999998E-2</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>49</v>
+        <v>0.27742099999999997</v>
+      </c>
+      <c r="I18" s="1">
+        <v>9.4270000000000007E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="23">
-        <v>1317600.0282729999</v>
+        <v>1319224.0140569999</v>
       </c>
       <c r="E19" s="22">
-        <v>1.265E-2</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="F19" s="22">
-        <v>2.0860000000000002E-3</v>
+        <v>2.967E-3</v>
       </c>
       <c r="G19" s="22">
-        <v>0.98807599999999995</v>
+        <v>0.95665</v>
       </c>
       <c r="H19" s="9">
-        <v>9.2349000000000001E-2</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>51</v>
+        <v>0.28493000000000002</v>
+      </c>
+      <c r="I19" s="1">
+        <v>9.3812000000000006E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="23">
-        <v>1317716.424079</v>
+        <v>1319501.071453</v>
       </c>
       <c r="E20" s="22">
-        <v>2.5569999999999999E-2</v>
+        <v>1.176E-2</v>
       </c>
       <c r="F20" s="22">
-        <v>2.1749999999999999E-3</v>
+        <v>3.1779999999999998E-3</v>
       </c>
       <c r="G20" s="22">
-        <v>0.98649299999999995</v>
+        <v>0.96153500000000003</v>
       </c>
       <c r="H20" s="9">
-        <v>0.10295700000000001</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>53</v>
+        <v>0.255185</v>
+      </c>
+      <c r="I20" s="1">
+        <v>8.1533999999999995E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="23">
-        <v>1318026.6619879999</v>
+        <v>1319757.0034719999</v>
       </c>
       <c r="E21" s="22">
-        <v>5.13E-3</v>
+        <v>4.7800000000000004E-3</v>
       </c>
       <c r="F21" s="22">
-        <v>2.4109999999999999E-3</v>
+        <v>3.3730000000000001E-3</v>
       </c>
       <c r="G21" s="22">
-        <v>0.94916500000000004</v>
+        <v>0.93239399999999995</v>
       </c>
       <c r="H21" s="9">
-        <v>0.32431399999999999</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>55</v>
+        <v>0.39382299999999998</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.154692</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="23">
-        <v>1318032.921633</v>
+        <v>1319775.8952510001</v>
       </c>
       <c r="E22" s="22">
-        <v>6.45E-3</v>
+        <v>5.8900000000000003E-3</v>
       </c>
       <c r="F22" s="22">
-        <v>2.415E-3</v>
+        <v>3.3869999999999998E-3</v>
       </c>
       <c r="G22" s="22">
-        <v>0.96297600000000005</v>
+        <v>0.93198400000000003</v>
       </c>
       <c r="H22" s="9">
-        <v>0.24302599999999999</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>57</v>
+        <v>0.39557700000000001</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.15584999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="23">
-        <v>1318090.9742940001</v>
+        <v>1319871.766608</v>
       </c>
       <c r="E23" s="22">
-        <v>5.1599999999999997E-3</v>
+        <v>7.0299999999999998E-3</v>
       </c>
       <c r="F23" s="22">
-        <v>2.4589999999999998E-3</v>
+        <v>3.46E-3</v>
       </c>
       <c r="G23" s="22">
-        <v>0.92863200000000001</v>
+        <v>0.96373600000000004</v>
       </c>
       <c r="H23" s="9">
-        <v>0.40127400000000002</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>59</v>
+        <v>0.24371399999999999</v>
+      </c>
+      <c r="I23" s="1">
+        <v>7.6731999999999995E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="23">
-        <v>1318170.8023940001</v>
+        <v>1320191.725511</v>
       </c>
       <c r="E24" s="22">
-        <v>1.013E-2</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="F24" s="22">
-        <v>2.5200000000000001E-3</v>
+        <v>3.7030000000000001E-3</v>
       </c>
       <c r="G24" s="22">
-        <v>0.93188300000000002</v>
+        <v>0.95396700000000001</v>
       </c>
       <c r="H24" s="9">
-        <v>0.39047900000000002</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>61</v>
+        <v>0.30593799999999999</v>
+      </c>
+      <c r="I24" s="1">
+        <v>9.8837999999999995E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="23">
-        <v>1318184.4242759999</v>
+        <v>1320245.3722890001</v>
       </c>
       <c r="E25" s="22">
-        <v>3.9399999999999999E-3</v>
+        <v>8.8500000000000002E-3</v>
       </c>
       <c r="F25" s="22">
-        <v>2.5300000000000001E-3</v>
+        <v>3.7439999999999999E-3</v>
       </c>
       <c r="G25" s="22">
-        <v>0.92852000000000001</v>
+        <v>0.93995700000000004</v>
       </c>
       <c r="H25" s="9">
-        <v>0.40239999999999998</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>63</v>
+        <v>0.35542400000000002</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.13556499999999999</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="23">
-        <v>1318221.0009630001</v>
+        <v>1320374.569196</v>
       </c>
       <c r="E26" s="22">
-        <v>5.2700000000000004E-3</v>
+        <v>5.8399999999999997E-3</v>
       </c>
       <c r="F26" s="22">
-        <v>2.5579999999999999E-3</v>
+        <v>3.8419999999999999E-3</v>
       </c>
       <c r="G26" s="22">
-        <v>0.92819399999999996</v>
+        <v>0.94733999999999996</v>
       </c>
       <c r="H26" s="9">
-        <v>0.40357300000000002</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>65</v>
+        <v>0.33066499999999999</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.115207</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="23">
-        <v>1318221.0009630001</v>
+        <v>1320440.1602350001</v>
       </c>
       <c r="E27" s="22">
-        <v>5.2700000000000004E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="F27" s="22">
-        <v>2.5579999999999999E-3</v>
+        <v>3.8920000000000001E-3</v>
       </c>
       <c r="G27" s="22">
-        <v>0.92819399999999996</v>
+        <v>0.95294900000000005</v>
       </c>
       <c r="H27" s="9">
-        <v>0.40357300000000002</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>65</v>
+        <v>0.301147</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.10213700000000001</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="23">
-        <v>1318303.39998</v>
+        <v>1320460.7840150001</v>
       </c>
       <c r="E28" s="22">
-        <v>3.64E-3</v>
+        <v>7.0899999999999999E-3</v>
       </c>
       <c r="F28" s="22">
-        <v>2.6210000000000001E-3</v>
+        <v>3.908E-3</v>
       </c>
       <c r="G28" s="22">
-        <v>0.95277699999999999</v>
+        <v>0.95672900000000005</v>
       </c>
       <c r="H28" s="9">
-        <v>0.30408800000000002</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>68</v>
+        <v>0.28149299999999999</v>
+      </c>
+      <c r="I28" s="1">
+        <v>9.2046000000000003E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" s="23">
-        <v>1318324.6172480001</v>
+        <v>1320603.5723949999</v>
       </c>
       <c r="E29" s="22">
-        <v>1.013E-2</v>
+        <v>5.5799999999999999E-3</v>
       </c>
       <c r="F29" s="22">
-        <v>2.637E-3</v>
+        <v>4.0159999999999996E-3</v>
       </c>
       <c r="G29" s="22">
-        <v>0.93493599999999999</v>
+        <v>0.95870999999999995</v>
       </c>
       <c r="H29" s="9">
-        <v>0.37718499999999999</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>70</v>
+        <v>0.26629399999999998</v>
+      </c>
+      <c r="I29" s="1">
+        <v>8.8747999999999994E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="23">
-        <v>1318599.1281369999</v>
+        <v>1320614.0022720001</v>
       </c>
       <c r="E30" s="22">
-        <v>4.3099999999999996E-3</v>
+        <v>4.7800000000000004E-3</v>
       </c>
       <c r="F30" s="22">
-        <v>2.846E-3</v>
+        <v>4.0239999999999998E-3</v>
       </c>
       <c r="G30" s="22">
-        <v>0.95014500000000002</v>
+        <v>0.95644700000000005</v>
       </c>
       <c r="H30" s="9">
-        <v>0.31754399999999999</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>72</v>
+        <v>0.290182</v>
+      </c>
+      <c r="I30" s="1">
+        <v>9.2962000000000003E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="23">
-        <v>1318605.7434940001</v>
+        <v>1320742.376891</v>
       </c>
       <c r="E31" s="22">
-        <v>2.64E-3</v>
+        <v>6.3899999999999998E-3</v>
       </c>
       <c r="F31" s="22">
-        <v>2.8509999999999998E-3</v>
+        <v>4.1219999999999998E-3</v>
       </c>
       <c r="G31" s="22">
-        <v>0.92727199999999999</v>
+        <v>0.96001700000000001</v>
       </c>
       <c r="H31" s="9">
-        <v>0.41132200000000002</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>74</v>
+        <v>0.26624700000000001</v>
+      </c>
+      <c r="I31" s="1">
+        <v>8.412E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="23">
-        <v>1318801.881815</v>
+        <v>1321132.044924</v>
       </c>
       <c r="E32" s="22">
-        <v>7.1599999999999997E-3</v>
+        <v>8.0499999999999999E-3</v>
       </c>
       <c r="F32" s="22">
-        <v>3.0000000000000001E-3</v>
+        <v>4.4180000000000001E-3</v>
       </c>
       <c r="G32" s="22">
-        <v>0.93560600000000005</v>
+        <v>0.94700499999999999</v>
       </c>
       <c r="H32" s="9">
-        <v>0.36672399999999999</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>76</v>
+        <v>0.33336700000000002</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.11518399999999999</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" s="23">
-        <v>1318854.3824080001</v>
+        <v>1321173.366132</v>
       </c>
       <c r="E33" s="22">
-        <v>3.3700000000000002E-3</v>
+        <v>1.294E-2</v>
       </c>
       <c r="F33" s="22">
-        <v>3.0400000000000002E-3</v>
+        <v>4.4489999999999998E-3</v>
       </c>
       <c r="G33" s="22">
-        <v>0.94497799999999998</v>
+        <v>0.93647999999999998</v>
       </c>
       <c r="H33" s="9">
-        <v>0.34745999999999999</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>78</v>
+        <v>0.38122099999999998</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.142818</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" s="23">
-        <v>1318987.5893620001</v>
+        <v>1321173.366132</v>
       </c>
       <c r="E34" s="22">
-        <v>5.5599999999999998E-3</v>
+        <v>1.294E-2</v>
       </c>
       <c r="F34" s="22">
-        <v>3.1410000000000001E-3</v>
+        <v>4.4489999999999998E-3</v>
       </c>
       <c r="G34" s="22">
-        <v>0.94552099999999994</v>
+        <v>0.93647999999999998</v>
       </c>
       <c r="H34" s="9">
-        <v>0.344331</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>80</v>
+        <v>0.38122099999999998</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.142818</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="23">
-        <v>1319008.923439</v>
+        <v>1321182.4871660001</v>
       </c>
       <c r="E35" s="22">
-        <v>6.6299999999999996E-3</v>
+        <v>1.3259999999999999E-2</v>
       </c>
       <c r="F35" s="22">
-        <v>3.1580000000000002E-3</v>
+        <v>4.4559999999999999E-3</v>
       </c>
       <c r="G35" s="22">
-        <v>0.94823100000000005</v>
+        <v>0.946048</v>
       </c>
       <c r="H35" s="9">
-        <v>0.32954</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>82</v>
+        <v>0.34220400000000001</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.117114</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="23">
-        <v>1319058.0523059999</v>
+        <v>1321324.6888550001</v>
       </c>
       <c r="E36" s="22">
-        <v>6.45E-3</v>
+        <v>6.28E-3</v>
       </c>
       <c r="F36" s="22">
-        <v>3.1949999999999999E-3</v>
+        <v>4.5640000000000003E-3</v>
       </c>
       <c r="G36" s="22">
-        <v>0.96040700000000001</v>
+        <v>0.96528499999999995</v>
       </c>
       <c r="H36" s="9">
-        <v>0.25423400000000002</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>84</v>
+        <v>0.234096</v>
+      </c>
+      <c r="I36" s="1">
+        <v>7.2955999999999993E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="23">
-        <v>1319242.2024079999</v>
+        <v>1321510.70655</v>
       </c>
       <c r="E37" s="22">
-        <v>1.367E-2</v>
+        <v>3.79E-3</v>
       </c>
       <c r="F37" s="22">
-        <v>3.3349999999999999E-3</v>
+        <v>4.7060000000000001E-3</v>
       </c>
       <c r="G37" s="22">
-        <v>0.93250999999999995</v>
+        <v>0.96320499999999998</v>
       </c>
       <c r="H37" s="9">
-        <v>0.39369199999999999</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>86</v>
+        <v>0.24556</v>
+      </c>
+      <c r="I37" s="1">
+        <v>7.7533000000000005E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
       <c r="D38" s="23">
-        <v>1319356.2237549999</v>
+        <v>1321689.048281</v>
       </c>
       <c r="E38" s="22">
-        <v>1.576E-2</v>
+        <v>5.5799999999999999E-3</v>
       </c>
       <c r="F38" s="22">
-        <v>3.4220000000000001E-3</v>
+        <v>4.8409999999999998E-3</v>
       </c>
       <c r="G38" s="22">
-        <v>0.94594</v>
+        <v>0.95951200000000003</v>
       </c>
       <c r="H38" s="9">
-        <v>0.33626499999999998</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>88</v>
+        <v>0.27157999999999999</v>
+      </c>
+      <c r="I38" s="1">
+        <v>8.5893999999999998E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="23">
-        <v>1319372.6521689999</v>
+        <v>1321894.8004719999</v>
       </c>
       <c r="E39" s="22">
-        <v>1.8270000000000002E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="F39" s="22">
-        <v>3.434E-3</v>
+        <v>4.9979999999999998E-3</v>
       </c>
       <c r="G39" s="22">
-        <v>0.95420400000000005</v>
+        <v>0.93680099999999999</v>
       </c>
       <c r="H39" s="9">
-        <v>0.298877</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>90</v>
+        <v>0.38120599999999999</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.14211399999999999</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="23">
-        <v>1319471.0158589999</v>
+        <v>1321895.620109</v>
       </c>
       <c r="E40" s="22">
-        <v>5.4299999999999999E-3</v>
+        <v>8.5599999999999999E-3</v>
       </c>
       <c r="F40" s="22">
-        <v>3.509E-3</v>
+        <v>4.9979999999999998E-3</v>
       </c>
       <c r="G40" s="22">
-        <v>0.94895499999999999</v>
+        <v>0.93664599999999998</v>
       </c>
       <c r="H40" s="9">
-        <v>0.32639800000000002</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>0.381164</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.14244399999999999</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
       <c r="D41" s="23">
-        <v>1319471.100418</v>
+        <v>1321990.8091130001</v>
       </c>
       <c r="E41" s="22">
-        <v>1.5820000000000001E-2</v>
+        <v>6.3400000000000001E-3</v>
       </c>
       <c r="F41" s="22">
-        <v>3.509E-3</v>
+        <v>5.071E-3</v>
       </c>
       <c r="G41" s="22">
-        <v>0.93440699999999999</v>
+        <v>0.93812799999999996</v>
       </c>
       <c r="H41" s="9">
-        <v>0.38067699999999999</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>94</v>
+        <v>0.37820500000000001</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.13700799999999999</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="23">
-        <v>1319471.100418</v>
+        <v>1322041.5655509999</v>
       </c>
       <c r="E42" s="22">
-        <v>1.5820000000000001E-2</v>
+        <v>7.5500000000000003E-3</v>
       </c>
       <c r="F42" s="22">
-        <v>3.509E-3</v>
+        <v>5.1089999999999998E-3</v>
       </c>
       <c r="G42" s="22">
-        <v>0.93440699999999999</v>
+        <v>0.95868299999999995</v>
       </c>
       <c r="H42" s="9">
-        <v>0.38067699999999999</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>94</v>
+        <v>0.26309300000000002</v>
+      </c>
+      <c r="I42" s="1">
+        <v>8.7484000000000006E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="23">
-        <v>1319522.5522</v>
+        <v>1322286.4274820001</v>
       </c>
       <c r="E43" s="22">
-        <v>1.4E-2</v>
+        <v>7.92E-3</v>
       </c>
       <c r="F43" s="22">
-        <v>3.5479999999999999E-3</v>
+        <v>5.2960000000000004E-3</v>
       </c>
       <c r="G43" s="22">
-        <v>0.934006</v>
+        <v>0.95724900000000002</v>
       </c>
       <c r="H43" s="9">
-        <v>0.38202700000000001</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>97</v>
+        <v>0.27068599999999998</v>
+      </c>
+      <c r="I43" s="1">
+        <v>9.1455999999999996E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" s="23">
-        <v>1319530.337355</v>
+        <v>1322314.6538559999</v>
       </c>
       <c r="E44" s="22">
-        <v>1.064E-2</v>
+        <v>8.6800000000000002E-3</v>
       </c>
       <c r="F44" s="22">
-        <v>3.5539999999999999E-3</v>
+        <v>5.3169999999999997E-3</v>
       </c>
       <c r="G44" s="22">
-        <v>0.93020400000000003</v>
+        <v>0.94672199999999995</v>
       </c>
       <c r="H44" s="9">
-        <v>0.405754</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>99</v>
+        <v>0.33626499999999998</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.116494</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="D45" s="23">
-        <v>1319548.9816389999</v>
+        <v>1322428.602801</v>
       </c>
       <c r="E45" s="22">
-        <v>5.4400000000000004E-3</v>
+        <v>5.8799999999999998E-3</v>
       </c>
       <c r="F45" s="22">
-        <v>3.568E-3</v>
+        <v>5.4039999999999999E-3</v>
       </c>
       <c r="G45" s="22">
-        <v>0.95062899999999995</v>
+        <v>0.96229100000000001</v>
       </c>
       <c r="H45" s="9">
-        <v>0.32213599999999998</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>101</v>
+        <v>0.23729900000000001</v>
+      </c>
+      <c r="I45" s="1">
+        <v>8.0244999999999997E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
       </c>
       <c r="D46" s="23">
-        <v>1319553.1624449999</v>
+        <v>1322518.3096479999</v>
       </c>
       <c r="E46" s="22">
-        <v>1.367E-2</v>
+        <v>5.3400000000000001E-3</v>
       </c>
       <c r="F46" s="22">
-        <v>3.571E-3</v>
+        <v>5.4720000000000003E-3</v>
       </c>
       <c r="G46" s="22">
-        <v>0.94362100000000004</v>
+        <v>0.952461</v>
       </c>
       <c r="H46" s="9">
-        <v>0.354215</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>103</v>
+        <v>0.30157899999999999</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.102358</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="23">
-        <v>1319556.5263720001</v>
+        <v>1322762.4936929999</v>
       </c>
       <c r="E47" s="22">
-        <v>5.4400000000000004E-3</v>
+        <v>5.5599999999999998E-3</v>
       </c>
       <c r="F47" s="22">
-        <v>3.5739999999999999E-3</v>
+        <v>5.6579999999999998E-3</v>
       </c>
       <c r="G47" s="22">
-        <v>0.95027499999999998</v>
+        <v>0.94759099999999996</v>
       </c>
       <c r="H47" s="9">
-        <v>0.323685</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>105</v>
+        <v>0.337368</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.11319799999999999</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" s="23">
-        <v>1319556.5263720001</v>
+        <v>1322807.6266369999</v>
       </c>
       <c r="E48" s="22">
-        <v>5.4400000000000004E-3</v>
+        <v>7.0600000000000003E-3</v>
       </c>
       <c r="F48" s="22">
-        <v>3.5739999999999999E-3</v>
+        <v>5.692E-3</v>
       </c>
       <c r="G48" s="22">
-        <v>0.95027499999999998</v>
+        <v>0.94357599999999997</v>
       </c>
       <c r="H48" s="9">
-        <v>0.323685</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>105</v>
+        <v>0.349968</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.123366</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" s="23">
-        <v>1319628.3695340001</v>
+        <v>1322815.7319420001</v>
       </c>
       <c r="E49" s="22">
-        <v>1.089E-2</v>
+        <v>3.5500000000000002E-3</v>
       </c>
       <c r="F49" s="22">
-        <v>3.6289999999999998E-3</v>
+        <v>5.6979999999999999E-3</v>
       </c>
       <c r="G49" s="22">
-        <v>0.96588099999999999</v>
+        <v>0.95438800000000001</v>
       </c>
       <c r="H49" s="9">
-        <v>0.23194799999999999</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>108</v>
+        <v>0.29217300000000002</v>
+      </c>
+      <c r="I49" s="1">
+        <v>9.6738000000000005E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" s="23">
-        <v>1319688.6228509999</v>
+        <v>1322930.2640490001</v>
       </c>
       <c r="E50" s="22">
-        <v>7.7600000000000004E-3</v>
+        <v>7.1900000000000002E-3</v>
       </c>
       <c r="F50" s="22">
-        <v>3.6740000000000002E-3</v>
+        <v>5.7850000000000002E-3</v>
       </c>
       <c r="G50" s="22">
-        <v>0.94604500000000002</v>
+        <v>0.94442099999999995</v>
       </c>
       <c r="H50" s="9">
-        <v>0.34156399999999998</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>110</v>
+        <v>0.35486899999999999</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.119796</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" s="23">
-        <v>1319711.2573790001</v>
+        <v>1322960.275925</v>
       </c>
       <c r="E51" s="22">
-        <v>5.6800000000000002E-3</v>
+        <v>1.154E-2</v>
       </c>
       <c r="F51" s="22">
-        <v>3.692E-3</v>
+        <v>5.8079999999999998E-3</v>
       </c>
       <c r="G51" s="22">
-        <v>0.94578499999999999</v>
+        <v>0.95277299999999998</v>
       </c>
       <c r="H51" s="9">
-        <v>0.34261799999999998</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>112</v>
+        <v>0.30211700000000002</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.100287</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" s="23">
-        <v>1319743.0697959999</v>
+        <v>1323132.7746079999</v>
       </c>
       <c r="E52" s="22">
-        <v>8.7600000000000004E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="F52" s="22">
-        <v>3.7160000000000001E-3</v>
+        <v>5.9389999999999998E-3</v>
       </c>
       <c r="G52" s="22">
-        <v>0.96817600000000004</v>
+        <v>0.95968699999999996</v>
       </c>
       <c r="H52" s="9">
-        <v>0.215088</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>114</v>
+        <v>0.256021</v>
+      </c>
+      <c r="I52" s="1">
+        <v>8.5703000000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
       <c r="D53" s="23">
-        <v>1319800.6901410001</v>
+        <v>1323170.371943</v>
       </c>
       <c r="E53" s="22">
-        <v>1.0070000000000001E-2</v>
+        <v>8.4899999999999993E-3</v>
       </c>
       <c r="F53" s="22">
-        <v>3.7599999999999999E-3</v>
+        <v>5.9680000000000002E-3</v>
       </c>
       <c r="G53" s="22">
-        <v>0.97262599999999999</v>
+        <v>0.95452300000000001</v>
       </c>
       <c r="H53" s="9">
-        <v>0.18614900000000001</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>116</v>
+        <v>0.292466</v>
+      </c>
+      <c r="I53" s="1">
+        <v>9.6244999999999997E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" s="23">
-        <v>1319807.6268170001</v>
+        <v>1323170.371943</v>
       </c>
       <c r="E54" s="22">
-        <v>5.8599999999999998E-3</v>
+        <v>8.4899999999999993E-3</v>
       </c>
       <c r="F54" s="22">
-        <v>3.7650000000000001E-3</v>
+        <v>5.9680000000000002E-3</v>
       </c>
       <c r="G54" s="22">
-        <v>0.94784199999999996</v>
+        <v>0.95452300000000001</v>
       </c>
       <c r="H54" s="9">
-        <v>0.33356999999999998</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>118</v>
+        <v>0.292466</v>
+      </c>
+      <c r="I54" s="1">
+        <v>9.6244999999999997E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" s="23">
-        <v>1319864.185089</v>
+        <v>1323195.029904</v>
       </c>
       <c r="E55" s="22">
-        <v>1.9689999999999999E-2</v>
+        <v>7.5700000000000003E-3</v>
       </c>
       <c r="F55" s="22">
-        <v>3.8080000000000002E-3</v>
+        <v>5.986E-3</v>
       </c>
       <c r="G55" s="22">
-        <v>0.96230000000000004</v>
+        <v>0.93911999999999995</v>
       </c>
       <c r="H55" s="9">
-        <v>0.24950700000000001</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>120</v>
+        <v>0.37338900000000003</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.133745</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56" s="23">
-        <v>1319878.262414</v>
+        <v>1323353.3589349999</v>
       </c>
       <c r="E56" s="22">
-        <v>2.214E-2</v>
+        <v>7.5599999999999999E-3</v>
       </c>
       <c r="F56" s="22">
-        <v>3.8189999999999999E-3</v>
+        <v>6.1069999999999996E-3</v>
       </c>
       <c r="G56" s="22">
-        <v>0.94436799999999999</v>
+        <v>0.94075699999999995</v>
       </c>
       <c r="H56" s="9">
-        <v>0.34311000000000003</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>122</v>
+        <v>0.36671999999999999</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.12996199999999999</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="D57" s="23">
-        <v>1319878.262414</v>
+        <v>1323383.3010410001</v>
       </c>
       <c r="E57" s="22">
-        <v>2.214E-2</v>
+        <v>7.9100000000000004E-3</v>
       </c>
       <c r="F57" s="22">
-        <v>3.8189999999999999E-3</v>
+        <v>6.13E-3</v>
       </c>
       <c r="G57" s="22">
-        <v>0.94436799999999999</v>
+        <v>0.939195</v>
       </c>
       <c r="H57" s="9">
-        <v>0.34311000000000003</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>122</v>
+        <v>0.37390499999999999</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.13411500000000001</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="D58" s="23">
-        <v>1319883.53887</v>
+        <v>1323415.1785869999</v>
       </c>
       <c r="E58" s="22">
-        <v>6.8399999999999997E-3</v>
+        <v>6.7499999999999999E-3</v>
       </c>
       <c r="F58" s="22">
-        <v>3.823E-3</v>
+        <v>6.1539999999999997E-3</v>
       </c>
       <c r="G58" s="22">
-        <v>0.95102399999999998</v>
+        <v>0.95429200000000003</v>
       </c>
       <c r="H58" s="9">
-        <v>0.32102000000000003</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>125</v>
+        <v>0.29786400000000002</v>
+      </c>
+      <c r="I58" s="1">
+        <v>9.6882999999999997E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="23">
-        <v>1319883.53887</v>
+        <v>1323973.9459490001</v>
       </c>
       <c r="E59" s="22">
-        <v>6.8399999999999997E-3</v>
+        <v>7.3200000000000001E-3</v>
       </c>
       <c r="F59" s="22">
-        <v>3.823E-3</v>
+        <v>6.5789999999999998E-3</v>
       </c>
       <c r="G59" s="22">
-        <v>0.95102399999999998</v>
+        <v>0.93234700000000004</v>
       </c>
       <c r="H59" s="9">
-        <v>0.32102000000000003</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>125</v>
+        <v>0.40844000000000003</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.15057300000000001</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" s="23">
-        <v>1319893.7554880001</v>
+        <v>1324240.414537</v>
       </c>
       <c r="E60" s="22">
-        <v>1.0070000000000001E-2</v>
+        <v>7.6400000000000001E-3</v>
       </c>
       <c r="F60" s="22">
-        <v>3.8300000000000001E-3</v>
+        <v>6.7809999999999997E-3</v>
       </c>
       <c r="G60" s="22">
-        <v>0.97258299999999998</v>
+        <v>0.94544700000000004</v>
       </c>
       <c r="H60" s="9">
-        <v>0.186309</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>128</v>
+        <v>0.33929399999999998</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.11808299999999999</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="D61" s="23">
-        <v>1319937.337449</v>
+        <v>1324294.544764</v>
       </c>
       <c r="E61" s="22">
-        <v>1.208E-2</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="F61" s="22">
-        <v>3.8639999999999998E-3</v>
+        <v>6.8219999999999999E-3</v>
       </c>
       <c r="G61" s="22">
-        <v>0.95068900000000001</v>
+        <v>0.92819700000000005</v>
       </c>
       <c r="H61" s="9">
-        <v>0.32239699999999999</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>130</v>
+        <v>0.42374600000000001</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.16142899999999999</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" s="23">
-        <v>1320014.7925430001</v>
+        <v>1324294.544764</v>
       </c>
       <c r="E62" s="22">
-        <v>1.6840000000000001E-2</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="F62" s="22">
-        <v>3.9230000000000003E-3</v>
+        <v>6.8219999999999999E-3</v>
       </c>
       <c r="G62" s="22">
-        <v>0.93220800000000004</v>
+        <v>0.92819700000000005</v>
       </c>
       <c r="H62" s="9">
-        <v>0.39081500000000002</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>132</v>
+        <v>0.42374600000000001</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.16142899999999999</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="23">
-        <v>1320014.7925430001</v>
+        <v>1324393.409221</v>
       </c>
       <c r="E63" s="22">
-        <v>1.6840000000000001E-2</v>
+        <v>8.2900000000000005E-3</v>
       </c>
       <c r="F63" s="22">
-        <v>3.9230000000000003E-3</v>
+        <v>6.8970000000000004E-3</v>
       </c>
       <c r="G63" s="22">
-        <v>0.93220800000000004</v>
+        <v>0.95183099999999998</v>
       </c>
       <c r="H63" s="9">
-        <v>0.39081500000000002</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>132</v>
+        <v>0.30427999999999999</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.102313</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" s="23">
-        <v>1320030.003859</v>
+        <v>1324495.7002280001</v>
       </c>
       <c r="E64" s="22">
-        <v>5.4400000000000004E-3</v>
+        <v>9.2800000000000001E-3</v>
       </c>
       <c r="F64" s="22">
-        <v>3.934E-3</v>
+        <v>6.9750000000000003E-3</v>
       </c>
       <c r="G64" s="22">
-        <v>0.95165900000000003</v>
+        <v>0.95319399999999999</v>
       </c>
       <c r="H64" s="9">
-        <v>0.31559700000000002</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>135</v>
+        <v>0.29767900000000003</v>
+      </c>
+      <c r="I64" s="1">
+        <v>9.9166000000000004E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="D65" s="23">
-        <v>1320064.376773</v>
+        <v>1324505.3036819999</v>
       </c>
       <c r="E65" s="22">
-        <v>8.7100000000000007E-3</v>
+        <v>6.7400000000000003E-3</v>
       </c>
       <c r="F65" s="22">
-        <v>3.96E-3</v>
+        <v>6.9829999999999996E-3</v>
       </c>
       <c r="G65" s="22">
-        <v>0.95014699999999996</v>
+        <v>0.95287599999999995</v>
       </c>
       <c r="H65" s="9">
-        <v>0.32552399999999998</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>137</v>
+        <v>0.29907899999999998</v>
+      </c>
+      <c r="I65" s="1">
+        <v>9.9858000000000002E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" s="23">
-        <v>1320078.7961860001</v>
+        <v>1324557.3429370001</v>
       </c>
       <c r="E66" s="22">
-        <v>5.1200000000000004E-3</v>
+        <v>1.0240000000000001E-2</v>
       </c>
       <c r="F66" s="22">
-        <v>3.9709999999999997E-3</v>
+        <v>7.0219999999999996E-3</v>
       </c>
       <c r="G66" s="22">
-        <v>0.94958699999999996</v>
+        <v>0.94109900000000002</v>
       </c>
       <c r="H66" s="9">
-        <v>0.32754100000000003</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>139</v>
+        <v>0.35985</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0.128494</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="23">
-        <v>1320169.1247350001</v>
+        <v>1324577.004158</v>
       </c>
       <c r="E67" s="22">
-        <v>8.7100000000000007E-3</v>
+        <v>2.8900000000000002E-3</v>
       </c>
       <c r="F67" s="22">
-        <v>4.0400000000000002E-3</v>
+        <v>7.0369999999999999E-3</v>
       </c>
       <c r="G67" s="22">
-        <v>0.94955800000000001</v>
+        <v>0.95247599999999999</v>
       </c>
       <c r="H67" s="9">
-        <v>0.32820899999999997</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>141</v>
+        <v>0.29962699999999998</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0.10069400000000001</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
       <c r="D68" s="23">
-        <v>1320169.1247350001</v>
+        <v>1324592.3845850001</v>
       </c>
       <c r="E68" s="22">
-        <v>8.7100000000000007E-3</v>
+        <v>6.3800000000000003E-3</v>
       </c>
       <c r="F68" s="22">
-        <v>4.0400000000000002E-3</v>
+        <v>7.0489999999999997E-3</v>
       </c>
       <c r="G68" s="22">
-        <v>0.94955800000000001</v>
+        <v>0.92583000000000004</v>
       </c>
       <c r="H68" s="9">
-        <v>0.32820899999999997</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>141</v>
+        <v>0.43310599999999999</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.16769500000000001</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="23">
-        <v>1320281.2752680001</v>
+        <v>1324685.55159</v>
       </c>
       <c r="E69" s="22">
-        <v>8.9999999999999993E-3</v>
+        <v>5.6499999999999996E-3</v>
       </c>
       <c r="F69" s="22">
-        <v>4.1250000000000002E-3</v>
+        <v>7.1199999999999996E-3</v>
       </c>
       <c r="G69" s="22">
-        <v>0.92599500000000001</v>
+        <v>0.94562500000000005</v>
       </c>
       <c r="H69" s="9">
-        <v>0.42979400000000001</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>144</v>
+        <v>0.334088</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.11767</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" s="23">
-        <v>1320583.5161260001</v>
+        <v>1324831.5104499999</v>
       </c>
       <c r="E70" s="22">
-        <v>6.79E-3</v>
+        <v>6.6800000000000002E-3</v>
       </c>
       <c r="F70" s="22">
-        <v>4.3550000000000004E-3</v>
+        <v>7.2309999999999996E-3</v>
       </c>
       <c r="G70" s="22">
-        <v>0.94994299999999998</v>
+        <v>0.92176400000000003</v>
       </c>
       <c r="H70" s="9">
-        <v>0.327017</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>146</v>
+        <v>0.450353</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0.17819499999999999</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="D71" s="23">
-        <v>1320631.4016720001</v>
+        <v>1325607.080966</v>
       </c>
       <c r="E71" s="22">
-        <v>5.9699999999999996E-3</v>
+        <v>3.7200000000000002E-3</v>
       </c>
       <c r="F71" s="22">
-        <v>4.3920000000000001E-3</v>
+        <v>7.8200000000000006E-3</v>
       </c>
       <c r="G71" s="22">
-        <v>0.94652800000000004</v>
+        <v>0.945967</v>
       </c>
       <c r="H71" s="9">
-        <v>0.34262999999999999</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>148</v>
+        <v>0.33636300000000002</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0.115734</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
       <c r="D72" s="23">
-        <v>1320634.3856480001</v>
+        <v>1325718.471903</v>
       </c>
       <c r="E72" s="22">
-        <v>1.618E-2</v>
+        <v>9.5300000000000003E-3</v>
       </c>
       <c r="F72" s="22">
-        <v>4.3940000000000003E-3</v>
+        <v>7.9050000000000006E-3</v>
       </c>
       <c r="G72" s="22">
-        <v>0.97217900000000002</v>
+        <v>0.935311</v>
       </c>
       <c r="H72" s="9">
-        <v>0.19264000000000001</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>150</v>
+        <v>0.39619100000000002</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.14280100000000001</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
       </c>
       <c r="D73" s="23">
-        <v>1320664.7904719999</v>
+        <v>1325950.6555959999</v>
       </c>
       <c r="E73" s="22">
-        <v>1.1939999999999999E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="F73" s="22">
-        <v>4.4169999999999999E-3</v>
+        <v>8.0809999999999996E-3</v>
       </c>
       <c r="G73" s="22">
-        <v>0.96779899999999996</v>
+        <v>0.94470299999999996</v>
       </c>
       <c r="H73" s="9">
-        <v>0.21704300000000001</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>152</v>
+        <v>0.33474500000000001</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.120726</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" s="23">
-        <v>1320708.8896540001</v>
+        <v>1326089.623016</v>
       </c>
       <c r="E74" s="22">
-        <v>1.7160000000000002E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="F74" s="22">
-        <v>4.45E-3</v>
+        <v>8.1869999999999998E-3</v>
       </c>
       <c r="G74" s="22">
-        <v>0.95267000000000002</v>
+        <v>0.93860299999999997</v>
       </c>
       <c r="H74" s="9">
-        <v>0.30960300000000002</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>154</v>
+        <v>0.35416300000000001</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.13522600000000001</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
       <c r="D75" s="23">
-        <v>1320795.222107</v>
+        <v>1326176.4968640001</v>
       </c>
       <c r="E75" s="22">
-        <v>6.8399999999999997E-3</v>
+        <v>1.477E-2</v>
       </c>
       <c r="F75" s="22">
-        <v>4.516E-3</v>
+        <v>8.2529999999999999E-3</v>
       </c>
       <c r="G75" s="22">
-        <v>0.95071600000000001</v>
+        <v>0.93193899999999996</v>
       </c>
       <c r="H75" s="9">
-        <v>0.32259599999999999</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>156</v>
+        <v>0.39418500000000001</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.15170700000000001</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
       </c>
       <c r="D76" s="23">
-        <v>1320795.222107</v>
+        <v>1326207.062677</v>
       </c>
       <c r="E76" s="22">
-        <v>6.8399999999999997E-3</v>
+        <v>1.093E-2</v>
       </c>
       <c r="F76" s="22">
-        <v>4.516E-3</v>
+        <v>8.2760000000000004E-3</v>
       </c>
       <c r="G76" s="22">
-        <v>0.95071600000000001</v>
+        <v>0.93318199999999996</v>
       </c>
       <c r="H76" s="9">
-        <v>0.32259599999999999</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>156</v>
+        <v>0.38729000000000002</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.14873500000000001</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" s="23">
-        <v>1320885.5193640001</v>
+        <v>1326207.062677</v>
       </c>
       <c r="E77" s="22">
-        <v>1.384E-2</v>
+        <v>1.093E-2</v>
       </c>
       <c r="F77" s="22">
-        <v>4.5849999999999997E-3</v>
+        <v>8.2760000000000004E-3</v>
       </c>
       <c r="G77" s="22">
-        <v>0.93042599999999998</v>
+        <v>0.93318199999999996</v>
       </c>
       <c r="H77" s="9">
-        <v>0.39944600000000002</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>159</v>
+        <v>0.38729000000000002</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.14873500000000001</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
       <c r="D78" s="23">
-        <v>1320936.7497690001</v>
+        <v>1326270.5574020001</v>
       </c>
       <c r="E78" s="22">
-        <v>6.13E-3</v>
+        <v>1.558E-2</v>
       </c>
       <c r="F78" s="22">
-        <v>4.6239999999999996E-3</v>
+        <v>8.3250000000000008E-3</v>
       </c>
       <c r="G78" s="22">
-        <v>0.94817600000000002</v>
+        <v>0.93183800000000006</v>
       </c>
       <c r="H78" s="9">
-        <v>0.33506200000000003</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>161</v>
+        <v>0.394783</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.15196799999999999</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
       <c r="D79" s="23">
-        <v>1320936.7497690001</v>
+        <v>1326564.8233149999</v>
       </c>
       <c r="E79" s="22">
-        <v>6.13E-3</v>
+        <v>8.26E-3</v>
       </c>
       <c r="F79" s="22">
-        <v>4.6239999999999996E-3</v>
+        <v>8.548E-3</v>
       </c>
       <c r="G79" s="22">
-        <v>0.94817600000000002</v>
+        <v>0.93501299999999998</v>
       </c>
       <c r="H79" s="9">
-        <v>0.33506200000000003</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>161</v>
+        <v>0.37958399999999998</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.14385400000000001</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
       </c>
       <c r="D80" s="23">
-        <v>1320959.7429549999</v>
+        <v>1326666.8847970001</v>
       </c>
       <c r="E80" s="22">
-        <v>6.13E-3</v>
+        <v>1.661E-2</v>
       </c>
       <c r="F80" s="22">
-        <v>4.6410000000000002E-3</v>
+        <v>8.626E-3</v>
       </c>
       <c r="G80" s="22">
-        <v>0.94832000000000005</v>
+        <v>0.93289999999999995</v>
       </c>
       <c r="H80" s="9">
-        <v>0.33434999999999998</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>164</v>
+        <v>0.39212399999999997</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.14857899999999999</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
       <c r="D81" s="23">
-        <v>1321103.8215040001</v>
+        <v>1326983.0751509999</v>
       </c>
       <c r="E81" s="22">
-        <v>5.7499999999999999E-3</v>
+        <v>1.208E-2</v>
       </c>
       <c r="F81" s="22">
-        <v>4.751E-3</v>
+        <v>8.8660000000000006E-3</v>
       </c>
       <c r="G81" s="22">
-        <v>0.95011000000000001</v>
+        <v>0.93460399999999999</v>
       </c>
       <c r="H81" s="9">
-        <v>0.32560899999999998</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>166</v>
+        <v>0.37759399999999999</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0.144868</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
       </c>
       <c r="D82" s="23">
-        <v>1321388.3560959999</v>
+        <v>1327053.9223219999</v>
       </c>
       <c r="E82" s="22">
-        <v>4.9500000000000004E-3</v>
+        <v>1.6049999999999998E-2</v>
       </c>
       <c r="F82" s="22">
-        <v>4.9670000000000001E-3</v>
+        <v>8.9200000000000008E-3</v>
       </c>
       <c r="G82" s="22">
-        <v>0.95185699999999995</v>
+        <v>0.932361</v>
       </c>
       <c r="H82" s="9">
-        <v>0.30511300000000002</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>168</v>
+        <v>0.38777200000000001</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.15029400000000001</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
       </c>
       <c r="D83" s="23">
-        <v>1321406.6363230001</v>
+        <v>1327260.006665</v>
       </c>
       <c r="E83" s="22">
-        <v>7.0200000000000002E-3</v>
+        <v>1.2749999999999999E-2</v>
       </c>
       <c r="F83" s="22">
-        <v>4.9810000000000002E-3</v>
+        <v>9.077E-3</v>
       </c>
       <c r="G83" s="22">
-        <v>0.92930999999999997</v>
+        <v>0.94431500000000002</v>
       </c>
       <c r="H83" s="9">
-        <v>0.412713</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>170</v>
+        <v>0.33943899999999999</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.119311</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
       <c r="D84" s="23">
-        <v>1321406.6363230001</v>
+        <v>1327565.873504</v>
       </c>
       <c r="E84" s="22">
-        <v>7.0200000000000002E-3</v>
+        <v>7.1199999999999996E-3</v>
       </c>
       <c r="F84" s="22">
-        <v>4.9810000000000002E-3</v>
+        <v>9.3089999999999996E-3</v>
       </c>
       <c r="G84" s="22">
-        <v>0.92930999999999997</v>
+        <v>0.93346499999999999</v>
       </c>
       <c r="H84" s="9">
-        <v>0.412713</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>170</v>
+        <v>0.40682499999999999</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.14587600000000001</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
       </c>
       <c r="D85" s="23">
-        <v>1321406.6363230001</v>
+        <v>1328075.9104210001</v>
       </c>
       <c r="E85" s="22">
-        <v>7.0200000000000002E-3</v>
+        <v>3.81E-3</v>
       </c>
       <c r="F85" s="22">
-        <v>4.9810000000000002E-3</v>
+        <v>9.6970000000000008E-3</v>
       </c>
       <c r="G85" s="22">
-        <v>0.92930999999999997</v>
+        <v>0.93789500000000003</v>
       </c>
       <c r="H85" s="9">
-        <v>0.412713</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>170</v>
+        <v>0.35178900000000002</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.13594600000000001</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
       </c>
       <c r="D86" s="23">
-        <v>1321500.7191010001</v>
+        <v>1328132.9909419999</v>
       </c>
       <c r="E86" s="22">
-        <v>3.5200000000000001E-3</v>
+        <v>6.3899999999999998E-3</v>
       </c>
       <c r="F86" s="22">
-        <v>5.0530000000000002E-3</v>
+        <v>9.7409999999999997E-3</v>
       </c>
       <c r="G86" s="22">
-        <v>0.96976499999999999</v>
+        <v>0.92984900000000004</v>
       </c>
       <c r="H86" s="9">
-        <v>0.19755300000000001</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>174</v>
+        <v>0.39166099999999998</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.15665999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>175</v>
+        <v>56</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
       </c>
       <c r="D87" s="23">
-        <v>1321781.9885229999</v>
+        <v>1328637.3937649999</v>
       </c>
       <c r="E87" s="22">
-        <v>7.0099999999999997E-3</v>
+        <v>6.5700000000000003E-3</v>
       </c>
       <c r="F87" s="22">
-        <v>5.267E-3</v>
+        <v>1.0123999999999999E-2</v>
       </c>
       <c r="G87" s="22">
-        <v>0.93478700000000003</v>
+        <v>0.93775399999999998</v>
       </c>
       <c r="H87" s="9">
-        <v>0.394812</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>176</v>
+        <v>0.37123800000000001</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0.13484399999999999</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
       </c>
       <c r="D88" s="23">
-        <v>1322018.485199</v>
+        <v>1329251.10675</v>
       </c>
       <c r="E88" s="22">
-        <v>1.406E-2</v>
+        <v>5.6600000000000001E-3</v>
       </c>
       <c r="F88" s="22">
-        <v>5.4460000000000003E-3</v>
+        <v>1.0591E-2</v>
       </c>
       <c r="G88" s="22">
-        <v>0.93595799999999996</v>
+        <v>0.91622800000000004</v>
       </c>
       <c r="H88" s="9">
-        <v>0.38292500000000002</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>178</v>
+        <v>0.44731700000000002</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0.192686</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
       </c>
       <c r="D89" s="23">
-        <v>1322185.940194</v>
+        <v>1329305.2943289999</v>
       </c>
       <c r="E89" s="22">
-        <v>9.6500000000000006E-3</v>
+        <v>6.5900000000000004E-3</v>
       </c>
       <c r="F89" s="22">
-        <v>5.574E-3</v>
+        <v>1.0632000000000001E-2</v>
       </c>
       <c r="G89" s="22">
-        <v>0.93728500000000003</v>
+        <v>0.93684500000000004</v>
       </c>
       <c r="H89" s="9">
-        <v>0.38096400000000002</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>180</v>
+        <v>0.37254799999999999</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0.13708300000000001</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
       </c>
       <c r="D90" s="23">
-        <v>1322861.1787950001</v>
+        <v>1329305.2943289999</v>
       </c>
       <c r="E90" s="22">
-        <v>6.62E-3</v>
+        <v>6.5900000000000004E-3</v>
       </c>
       <c r="F90" s="22">
-        <v>6.0870000000000004E-3</v>
+        <v>1.0632000000000001E-2</v>
       </c>
       <c r="G90" s="22">
-        <v>0.93899600000000005</v>
+        <v>0.93684500000000004</v>
       </c>
       <c r="H90" s="9">
-        <v>0.37260100000000002</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>182</v>
+        <v>0.37254799999999999</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0.13708300000000001</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
       </c>
       <c r="D91" s="23">
-        <v>1322900.452638</v>
+        <v>1329383.373381</v>
       </c>
       <c r="E91" s="22">
-        <v>8.0499999999999999E-3</v>
+        <v>5.1200000000000004E-3</v>
       </c>
       <c r="F91" s="22">
-        <v>6.117E-3</v>
+        <v>1.0691000000000001E-2</v>
       </c>
       <c r="G91" s="22">
-        <v>0.93605400000000005</v>
+        <v>0.93522700000000003</v>
       </c>
       <c r="H91" s="9">
-        <v>0.38468400000000003</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>184</v>
+        <v>0.36618099999999998</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0.14374899999999999</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
       </c>
       <c r="D92" s="23">
-        <v>1324596.085311</v>
+        <v>1329410.4622770001</v>
       </c>
       <c r="E92" s="22">
-        <v>6.0099999999999997E-3</v>
+        <v>4.7099999999999998E-3</v>
       </c>
       <c r="F92" s="22">
-        <v>7.4070000000000004E-3</v>
+        <v>1.0711999999999999E-2</v>
       </c>
       <c r="G92" s="22">
-        <v>0.934921</v>
+        <v>0.93657599999999996</v>
       </c>
       <c r="H92" s="9">
-        <v>0.39682400000000001</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>186</v>
+        <v>0.37658799999999998</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.13767599999999999</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
       </c>
       <c r="D93" s="23">
-        <v>1324640.2815169999</v>
+        <v>1329410.4622770001</v>
       </c>
       <c r="E93" s="22">
-        <v>6.3800000000000003E-3</v>
+        <v>4.7099999999999998E-3</v>
       </c>
       <c r="F93" s="22">
-        <v>7.4400000000000004E-3</v>
+        <v>1.0711999999999999E-2</v>
       </c>
       <c r="G93" s="22">
-        <v>0.92305099999999995</v>
+        <v>0.93657599999999996</v>
       </c>
       <c r="H93" s="9">
-        <v>0.44938899999999998</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>188</v>
+        <v>0.37658799999999998</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.13767599999999999</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
       </c>
       <c r="D94" s="23">
-        <v>1324640.2894639999</v>
+        <v>1329436.380164</v>
       </c>
       <c r="E94" s="22">
-        <v>6.3800000000000003E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="F94" s="22">
-        <v>7.4400000000000004E-3</v>
+        <v>1.0730999999999999E-2</v>
       </c>
       <c r="G94" s="22">
-        <v>0.92305499999999996</v>
+        <v>0.90971999999999997</v>
       </c>
       <c r="H94" s="9">
-        <v>0.44937199999999999</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>190</v>
+        <v>0.47970299999999999</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.21043899999999999</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
       </c>
       <c r="D95" s="23">
-        <v>1325844.241862</v>
+        <v>1329973.4293790001</v>
       </c>
       <c r="E95" s="22">
-        <v>8.9899999999999997E-3</v>
+        <v>7.1300000000000001E-3</v>
       </c>
       <c r="F95" s="22">
-        <v>8.3560000000000006E-3</v>
+        <v>1.1140000000000001E-2</v>
       </c>
       <c r="G95" s="22">
-        <v>0.94712700000000005</v>
+        <v>0.935222</v>
       </c>
       <c r="H95" s="9">
-        <v>0.31879299999999999</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>192</v>
+        <v>0.38274799999999998</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0.140934</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
       </c>
       <c r="D96" s="23">
-        <v>1325975.727096</v>
+        <v>1329973.4293790001</v>
       </c>
       <c r="E96" s="22">
-        <v>3.2799999999999999E-3</v>
+        <v>7.1300000000000001E-3</v>
       </c>
       <c r="F96" s="22">
-        <v>8.456E-3</v>
+        <v>1.1140000000000001E-2</v>
       </c>
       <c r="G96" s="22">
-        <v>0.94249799999999995</v>
+        <v>0.935222</v>
       </c>
       <c r="H96" s="9">
-        <v>0.33667900000000001</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>194</v>
+        <v>0.38274799999999998</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0.140934</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
       </c>
       <c r="D97" s="23">
-        <v>1326108.71373</v>
+        <v>1330120.462543</v>
       </c>
       <c r="E97" s="22">
-        <v>3.8700000000000002E-3</v>
+        <v>5.9699999999999996E-3</v>
       </c>
       <c r="F97" s="22">
-        <v>8.5570000000000004E-3</v>
+        <v>1.1252E-2</v>
       </c>
       <c r="G97" s="22">
-        <v>0.94908199999999998</v>
+        <v>0.93136300000000005</v>
       </c>
       <c r="H97" s="9">
-        <v>0.30045899999999998</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>196</v>
+        <v>0.39593099999999998</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0.15187999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
       </c>
       <c r="D98" s="23">
-        <v>1326108.71373</v>
+        <v>1332776.1635720001</v>
       </c>
       <c r="E98" s="22">
-        <v>3.8700000000000002E-3</v>
+        <v>4.0899999999999999E-3</v>
       </c>
       <c r="F98" s="22">
-        <v>8.5570000000000004E-3</v>
+        <v>1.3271E-2</v>
       </c>
       <c r="G98" s="22">
-        <v>0.94908199999999998</v>
+        <v>0.92437899999999995</v>
       </c>
       <c r="H98" s="9">
-        <v>0.30045899999999998</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>196</v>
+        <v>0.43666899999999997</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0.166153</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
       </c>
       <c r="D99" s="23">
-        <v>1326381.004893</v>
+        <v>1333114.1107089999</v>
       </c>
       <c r="E99" s="22">
-        <v>6.1500000000000001E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="F99" s="22">
-        <v>8.7639999999999992E-3</v>
+        <v>1.3528E-2</v>
       </c>
       <c r="G99" s="22">
-        <v>0.94748399999999999</v>
+        <v>0.91885499999999998</v>
       </c>
       <c r="H99" s="9">
-        <v>0.31616699999999998</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>199</v>
+        <v>0.452183</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0.18126600000000001</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
       </c>
       <c r="D100" s="23">
-        <v>1326443.3120240001</v>
+        <v>1333528.7158679999</v>
       </c>
       <c r="E100" s="22">
-        <v>6.1900000000000002E-3</v>
+        <v>4.4900000000000001E-3</v>
       </c>
       <c r="F100" s="22">
-        <v>8.8120000000000004E-3</v>
+        <v>1.3842999999999999E-2</v>
       </c>
       <c r="G100" s="22">
-        <v>0.941747</v>
+        <v>0.92368899999999998</v>
       </c>
       <c r="H100" s="9">
-        <v>0.34312199999999998</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>201</v>
+        <v>0.44401000000000002</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0.16805999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
       </c>
       <c r="D101" s="23">
-        <v>1354145.37063</v>
+        <v>1335973.4118290001</v>
       </c>
       <c r="E101" s="22">
-        <v>6.9899999999999997E-3</v>
+        <v>1.034E-2</v>
       </c>
       <c r="F101" s="22">
-        <v>2.988E-2</v>
+        <v>1.5701E-2</v>
       </c>
       <c r="G101" s="22">
-        <v>0.77373400000000003</v>
+        <v>0.92077699999999996</v>
       </c>
       <c r="H101" s="9">
-        <v>0.69470799999999999</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>203</v>
+        <v>0.44651200000000002</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0.17508599999999999</v>
       </c>
     </row>
   </sheetData>
